--- a/epigraphhub/data/brasil/sinan/metadata/HANT.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/HANT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="405">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -85,8 +85,7 @@
     <t xml:space="preserve">DT_INVEST</t>
   </si>
   <si>
-    <t xml:space="preserve">32. Ocupação/Ramo de atividade
-econômica</t>
+    <t xml:space="preserve">32. Ocupação/Ramo de atividade econômica</t>
   </si>
   <si>
     <t xml:space="preserve">co_cbo_ocupacao</t>
@@ -95,15 +94,7 @@
     <t xml:space="preserve">varchar2(6)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar a atividade
+    <t xml:space="preserve">Informar a atividade
 exercida pelo paciente
 no setor formal, informal
 ou autônomo ou sua
@@ -113,22 +104,12 @@
 de atividade econômica
 do paciente refere-se as
 atividades econômicas
-desenvolvidas nos </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">processos de produção
+desenvolvidas nos processos de produção
 do setor primário
 (agricultura e
 extrativismo); secundário
 (indústria) ou terciário
 (serviços e comércio).</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Campo Essencial</t>
@@ -137,12 +118,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a:
-Treinamento militar em parques,
-área rural ou silvestre.</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a: Treinamento militar em parques, área rural ou silvestre.</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_treinamento</t>
@@ -169,13 +145,7 @@
     <t xml:space="preserve">TREINA_MIL</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a:
-Desmatamento, aragem de terra,
-plantio agrícola, e outros
-semelhantes.</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a: Desmatamento, aragem de terra, plantio agrícola, e outros semelhantes.</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_desmatamento</t>
@@ -188,14 +158,7 @@
     <t xml:space="preserve">DESMATA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a :
-Exposição e/ou Limpeza de casa
-abandonada, despensa, galpão,
-depósitos, sótão, porão, e outros
-semelhantes</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a : Exposição e/ou Limpeza de casa abandonada, despensa, galpão, depósitos, sótão, porão, e outros semelhantes</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_exposicao</t>
@@ -204,14 +167,7 @@
     <t xml:space="preserve">EXPO_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a :
-Moagem e/ou Armazenamento de
-grãos, arrumou ou moveu fardos
-de lenha, capim, ou outros
-semelhantes.</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a : Moagem e/ou Armazenamento de grãos, arrumou ou moveu fardos de lenha, capim, ou outros semelhantes.</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_moagem</t>
@@ -220,12 +176,7 @@
     <t xml:space="preserve">MOAGEM_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a :
-Dormiu em barraca, galpão, paiol,
-e outros locais semelhantes.</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a : Dormiu em barraca, galpão, paiol, e outros locais semelhantes.</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_barraca</t>
@@ -234,13 +185,7 @@
     <t xml:space="preserve">DORMIU_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a:
-Transporte e/ou carregamento (em
-veículos motorizados) de cargas
-em geral</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a: Transporte e/ou carregamento (em veículos motorizados) de cargas em geral</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_transporte</t>
@@ -249,13 +194,7 @@
     <t xml:space="preserve">TRANSPO_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a:
-Pescou, caçou ou participou de
-atividades de eco turismo ou
-similares.</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a: Pescou, caçou ou participou de atividades de eco turismo ou similares.</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_pesca</t>
@@ -264,16 +203,7 @@
     <t xml:space="preserve">PESCOU_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a:
-Teve contato direto e/ou viu rato
-vivo ou morto ou suas
-excretas/vestígios (fezes, urina
-e/ou cheiro de urina, sangue,
-saliva, roeduras,pegadas,trilhas,
-manchas e outros sinais de rato)</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a: Teve contato direto e/ou viu rato vivo ou morto ou suas excretas/vestígios (fezes, urina e/ou cheiro de urina, sangue, saliva, roeduras,pegadas,trilhas, manchas e outros sinais de rato)</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_contato_rato</t>
@@ -282,77 +212,25 @@
     <t xml:space="preserve">ROEDOR_N</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">33. Nas últimas 8 semanas ( 60
-dias antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a :
-Outras atividades/ exposições </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(outros animais ou suas
-instalações / outros casos
-humanos de hantavírus ou outras)</t>
-    </r>
+    <t xml:space="preserve">33. Nas últimas 8 semanas ( 60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a : Outras atividades/ exposições (outros animais ou suas instalações / outros casos humanos de hantavírus ou outras)</t>
   </si>
   <si>
     <t xml:space="preserve">st_atividade_outro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar se nas últimas 8
+    <t xml:space="preserve">Informar se nas últimas 8
 semanas (60 dias) que
 antecederam os
 primeiros sintomas, o
 paciente desenvolveu ou
-esteve exposto à </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">atividade de risco
+esteve exposto à atividade de risco
 Descrita.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">OUTRA_ATIV</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias
-antes do inicio dos sintomas)
-desenvolveu e/ ou expôs-se
-atividades ligada a :
-Outras atividades/ exposições
-(outros animais ou suas
-instalações / outros casos
-humanos de hantavírus ou outras),
-se Outras especificar</t>
+    <t xml:space="preserve">33. Nas últimas 8 semanas (60 dias antes do inicio dos sintomas) desenvolveu e/ ou expôs-se atividades ligada a : Outras atividades/ exposições (outros animais ou suas instalações / outros casos humanos de hantavírus ou outras), se Outras especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_atividade_outro</t>
@@ -459,9 +337,7 @@
     <t xml:space="preserve">CLI_LOCAL</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Febre</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Febre</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_febre</t>
@@ -474,9 +350,7 @@
     <t xml:space="preserve">CLI_FEBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Tosse Seca</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Tosse Seca</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_tosse_seca</t>
@@ -489,10 +363,7 @@
     <t xml:space="preserve">CLI_TOSSE</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Dispnéia ( alteração na respiração,
-dificuldade para respirar)</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Dispnéia ( alteração na respiração, dificuldade para respirar)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_dispneia</t>
@@ -505,9 +376,7 @@
     <t xml:space="preserve">CLI_DISPNE</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Insuficiência Respiratória Aguda</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Insuficiência Respiratória Aguda</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_insuf_respira</t>
@@ -521,54 +390,10 @@
     <t xml:space="preserve">CLI_RESPI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas) </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Cefaléia</t>
-    </r>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Cefaléia</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_cefaleia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1-Sim
-2-Não
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">9-Ignorado</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Informar se o paciente
@@ -578,10 +403,7 @@
     <t xml:space="preserve">CLI_CEFALE</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Mialgia generalizada (dor em todo
-o corpo)</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Mialgia generalizada (dor em todo o corpo)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_mialgia</t>
@@ -594,10 +416,7 @@
     <t xml:space="preserve">CLI_MIAL_G</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Dor Lombar ( dor na região dos
-rins)</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Dor Lombar ( dor na região dos rins)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_dor_lombar</t>
@@ -610,9 +429,7 @@
     <t xml:space="preserve">CLI_LOMBAR</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Dor Abdominal</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Dor Abdominal</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_dor_abdomina</t>
@@ -626,9 +443,7 @@
     <t xml:space="preserve">CLI_ABDOMI</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Hipotensão</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Hipotensão</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_hipotensao</t>
@@ -641,9 +456,7 @@
     <t xml:space="preserve">CLI_HIPOTE</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Choque</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Choque</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_choque</t>
@@ -656,9 +469,7 @@
     <t xml:space="preserve">CLI_CHOQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Náusea/vômito</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Náusea/vômito</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_nausea</t>
@@ -672,9 +483,7 @@
     <t xml:space="preserve">CLI_VOMITO</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Diarréia</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Diarréia</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_diarreia</t>
@@ -687,9 +496,7 @@
     <t xml:space="preserve">CLI_DIARRE</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Dor Torácica</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Dor Torácica</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_dor_toracica</t>
@@ -702,9 +509,7 @@
     <t xml:space="preserve">CLI_TORACI</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Tontura/Vertigem</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Tontura/Vertigem</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_tontura</t>
@@ -718,9 +523,7 @@
     <t xml:space="preserve">CLI_TONTUR</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Insuficiência Cardíaca</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Insuficiência Cardíaca</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_insuf_cardiaca</t>
@@ -734,9 +537,7 @@
     <t xml:space="preserve">CLI_CARDIA</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Insuficiência renal</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Insuficiência renal</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_insuf_renal</t>
@@ -750,9 +551,7 @@
     <t xml:space="preserve">CLI_RENAL</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Sintomas Neurológicos</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Sintomas Neurológicos</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_sintoma_neuro</t>
@@ -766,9 +565,7 @@
     <t xml:space="preserve">CLI_NEUROL</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Astenia</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Astenia</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_astenia</t>
@@ -781,10 +578,7 @@
     <t xml:space="preserve">CLI_ASTENI</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)
-Petéquias (manchas de sangue
-sob a pele)</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) Petéquias (manchas de sangue sob a pele)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_petequias</t>
@@ -799,9 +593,7 @@
     <t xml:space="preserve">CLI_PETEQU</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas), Outras manifestações
-Hemorrágicas</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas), Outras manifestações Hemorrágicas</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_hemor_outro</t>
@@ -814,9 +606,7 @@
     <t xml:space="preserve">CLI_HEMO</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas), Outras manifestações
-Hemorrágicas (especificar)</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas), Outras manifestações Hemorrágicas (especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_manifestacao_hemor_outro</t>
@@ -859,8 +649,7 @@
     <t xml:space="preserve">CLI_H_DESC</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas) /Outros</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas) /Outros</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_outro</t>
@@ -874,8 +663,7 @@
     <t xml:space="preserve">CLI_OUTROS</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Manifestações clínicas (sinais
-e sintomas)/ Outros (especificar)</t>
+    <t xml:space="preserve">36. Manifestações clínicas (sinais e sintomas)/ Outros (especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_manifestacao_outro</t>
@@ -918,9 +706,7 @@
     <t xml:space="preserve">CLI_OUT_D</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Colheu amostra de sangue
-para exames cllínicos/
-bioquímicos</t>
+    <t xml:space="preserve">37. Colheu amostra de sangue para exames cllínicos/ bioquímicos</t>
   </si>
   <si>
     <t xml:space="preserve">st_amostra_sangue</t>
@@ -976,8 +762,7 @@
     <t xml:space="preserve">AM_SANGUE</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Resultado A
-Hematócrito &gt; 45%</t>
+    <t xml:space="preserve">38. Resultado A Hematócrito &gt; 45%</t>
   </si>
   <si>
     <t xml:space="preserve">st_resultado_a_hematocrito</t>
@@ -1020,8 +805,7 @@
     <t xml:space="preserve">LAB_HEMA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Resultado A
-Trombocitopenia</t>
+    <t xml:space="preserve">38. Resultado A Trombocitopenia</t>
   </si>
   <si>
     <t xml:space="preserve">st_resultado_a_trombocitopenia</t>
@@ -1030,8 +814,7 @@
     <t xml:space="preserve">LAB_TROMBO</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Resultado A
-Linfócitos Atípicos</t>
+    <t xml:space="preserve">38. Resultado A Linfócitos Atípicos</t>
   </si>
   <si>
     <t xml:space="preserve">st_resultado_a_linfocito</t>
@@ -1047,8 +830,7 @@
     <t xml:space="preserve">LAB_ATIPIC</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Resultado A
-Aumento de Uréia e Creatinina</t>
+    <t xml:space="preserve">38. Resultado A Aumento de Uréia e Creatinina</t>
   </si>
   <si>
     <t xml:space="preserve">st_resultado_a_aumento</t>
@@ -1057,8 +839,7 @@
     <t xml:space="preserve">LAB_UREIA</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Resultado A
-TGO</t>
+    <t xml:space="preserve">38. Resultado A TGO</t>
   </si>
   <si>
     <t xml:space="preserve">st_resultado_a_tgo</t>
@@ -1102,35 +883,16 @@
     <t xml:space="preserve">LAB_TGO_D</t>
   </si>
   <si>
-    <t xml:space="preserve">38. Resultado A
-TGP</t>
+    <t xml:space="preserve">38. Resultado A TGP</t>
   </si>
   <si>
     <t xml:space="preserve">st_resultado_a_tgp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1-Sim
+    <t xml:space="preserve">1-Sim
 2-Não
-3-Não </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">realizado
+3-Não realizado
 9-Ignorado</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1153,16 +915,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Habilitado se campo 37 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(Colheu amostra de sangue
+      <t xml:space="preserve">Habilitado se campo 37 (Colheu amostra de sangue
 para exames clínicos/
 bioquímicos) = 1(Sim).</t>
     </r>
@@ -1206,8 +959,7 @@
     <t xml:space="preserve">LAB_TGP_D</t>
   </si>
   <si>
-    <t xml:space="preserve">39. Resultado B
-Leucócitos</t>
+    <t xml:space="preserve">39. Resultado B Leucócitos</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_b</t>
@@ -1294,9 +1046,7 @@
     <t xml:space="preserve">LAB_RADIOL</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Se sim, apresentou alguma
-destas alterações?
-Infiltrado Pulmonar Difuso</t>
+    <t xml:space="preserve">41. Se sim, apresentou alguma destas alterações? Infiltrado Pulmonar Difuso</t>
   </si>
   <si>
     <t xml:space="preserve">st_alguma_alteracao_difuso</t>
@@ -1336,44 +1086,124 @@
     <t xml:space="preserve">LAB_DIFUSO</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Se sim, apresentou alguma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">st_alguma_alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Sim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se o exame radiológico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAB_LOCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">destas alterações?
-Infiltrado Pulmonar localizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eracao_localizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Não
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">41. Se sim, apresentou alguma </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">destas alterações? Infiltrado Pulmonar localizado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st_alguma_alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">eracao_localizado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1-Sim
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">2-Não
 9-Ignorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apresentou este
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Se o exame radiológico </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">apresentou este
 resultado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habilitado se campo 40
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Campo essencial
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Habilitado se campo 40
 (Realizou radiografia do
 Tórax) =1(sim).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41. Se sim, apresentou alguma
-destas alterações?
-Derrame Pleural</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LAB_LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41. Se sim, apresentou alguma destas alterações? Derrame Pleural</t>
   </si>
   <si>
     <t xml:space="preserve">st_alguma_alteracao_pleural</t>
@@ -1422,8 +1252,7 @@
     <t xml:space="preserve">DT_COL_IGM</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultado
-IgM</t>
+    <t xml:space="preserve">43. Resultado IgM</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_igm</t>
@@ -1441,8 +1270,7 @@
     <t xml:space="preserve">LAB_IGM_R</t>
   </si>
   <si>
-    <t xml:space="preserve">44. Resultado
-Imunohistoquimica</t>
+    <t xml:space="preserve">44. Resultado Imunohistoquimica</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_imunohistoquimica</t>
@@ -1496,35 +1324,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">46. Resultado
-RT-PCR</t>
+    <t xml:space="preserve">46. Resultado RT-PCR</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_amostra_rt_pcr</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1- positivo
+    <t xml:space="preserve">1- positivo
 2- negativo
 3- inconclusivo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">4- não realizado</t>
-    </r>
+4- não realizado</t>
   </si>
   <si>
     <t xml:space="preserve">LAB_RTPCR</t>
@@ -1694,8 +1503,7 @@
     <t xml:space="preserve">TRA_HOSPIT</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Suporte Terapêutico Ficou no
-Respirador mecânico</t>
+    <t xml:space="preserve">52. Suporte Terapêutico Ficou no Respirador mecânico</t>
   </si>
   <si>
     <t xml:space="preserve">st_terapeutico_respirador</t>
@@ -1704,78 +1512,16 @@
     <t xml:space="preserve">TRA_MECANI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">52. Suporte Terapêutico Usou </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Medicamento Antiviral (Ribavirina)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">st_terapeutico</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">_antiviral</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1-Sim
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">2-Não
-9-Ignorado</t>
-    </r>
+    <t xml:space="preserve">52. Suporte Terapêutico Usou Medicamento Antiviral (Ribavirina)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st_terapeutico_antiviral</t>
   </si>
   <si>
     <t xml:space="preserve">TRA_ANTIVI</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Suporte Terapêutico Usou
-corticóide</t>
+    <t xml:space="preserve">52. Suporte Terapêutico Usou corticóide</t>
   </si>
   <si>
     <t xml:space="preserve">st_terapeutico_corticoide</t>
@@ -1784,8 +1530,7 @@
     <t xml:space="preserve">TRA_CORTIC</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Suporte Terapêutico
-CPAP/BIPAP</t>
+    <t xml:space="preserve">52. Suporte Terapêutico CPAP/BIPAP</t>
   </si>
   <si>
     <t xml:space="preserve">st_terapeutico_cpap</t>
@@ -1794,9 +1539,7 @@
     <t xml:space="preserve">TRA_CPAP</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Suporte Terapêutico Usou
-Drogas Vasoativas (dopamina,
-dobutamina ou similares)</t>
+    <t xml:space="preserve">52. Suporte Terapêutico Usou Drogas Vasoativas (dopamina, dobutamina ou similares)</t>
   </si>
   <si>
     <t xml:space="preserve">st_terapeutico_droga</t>
@@ -1805,8 +1548,7 @@
     <t xml:space="preserve">TRA_VASOAT</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Suporte Terapêutico Usou
-Antibióticos</t>
+    <t xml:space="preserve">52. Suporte Terapêutico Usou Antibióticos</t>
   </si>
   <si>
     <t xml:space="preserve">st_terapeutico_antibiotico</t>
@@ -1815,8 +1557,7 @@
     <t xml:space="preserve">TRA_ANTIBI</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Suporte Terapêutico Outro tipo
-de tratamento</t>
+    <t xml:space="preserve">52. Suporte Terapêutico Outro tipo de tratamento</t>
   </si>
   <si>
     <t xml:space="preserve">st_terapeutico_outro</t>
@@ -1825,9 +1566,7 @@
     <t xml:space="preserve">TRA_TRATAM</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Suporte Terapêutico
-Outro Tipo de Tratamento
-(Especificar)</t>
+    <t xml:space="preserve">52. Suporte Terapêutico Outro Tipo de Tratamento (Especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_terapeutico_outro</t>
@@ -2018,8 +1757,7 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">56. O caso é Autóctone de
-residência?</t>
+    <t xml:space="preserve">56. O caso é Autóctone de residência?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_autoctone_residencia</t>
@@ -2107,32 +1845,13 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">provável
-da fonte de infecção) com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Município, Distrito e Bairro
+da fonte de infecção) com Município, Distrito e Bairro
 provável da fonte de
 infecção)
 campo não habilitado se
 classificação final diferente
 de 1- confirmado
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">os valores registrados nos
+os valores registrados nos
 campos da notificação e
 habilita para o usuário
 preencher os campos
@@ -2179,8 +1898,7 @@
     <t xml:space="preserve">TPAUTOCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">57. UF (provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">57. UF (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_infeccao</t>
@@ -2281,8 +1999,7 @@
     <t xml:space="preserve">COUFINF</t>
   </si>
   <si>
-    <t xml:space="preserve">58. País (provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">58. País (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_infeccao</t>
@@ -2380,8 +2097,7 @@
     <t xml:space="preserve">COPAISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">59. Município (provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">59. Município (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_infeccao</t>
@@ -2504,11 +2220,10 @@
     <t xml:space="preserve">COMUNINF</t>
   </si>
   <si>
-    <t xml:space="preserve">60. Distrito
-(provável de infecção)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co_distrito_infeccão</t>
+    <t xml:space="preserve">60. Distrito (provável de infecção)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_distrito_infeccao</t>
   </si>
   <si>
     <t xml:space="preserve">varchar2(4)</t>
@@ -2568,7 +2283,7 @@
     <t xml:space="preserve">61. Bairro (provável de infecção)</t>
   </si>
   <si>
-    <t xml:space="preserve">co_bairro_infeccao,
+    <t xml:space="preserve">co_bairro_infeccao
 no_bairro_infeccao</t>
   </si>
   <si>
@@ -2576,15 +2291,7 @@
 vachar2(60)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tabela
+    <t xml:space="preserve">Tabela
 Códigos e
 nomes
 padronizados
@@ -2592,20 +2299,10 @@
 Tabela
 disponibilizad
 a pelo
-sistema para </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">cadastrament
+sistema para cadastrament
 o pelo Gestor
 municipal do
 Sinan</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Código do bairro
@@ -2642,16 +2339,7 @@
 gravado o nome digitado no
 campo Bairro e não será
 gravado nenhum código. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Campo não habilitado se
+Campo não habilitado se
 classificação final diferente
 de 1- confirmado</t>
     </r>
@@ -2661,8 +2349,7 @@
 NOBAIINF</t>
   </si>
   <si>
-    <t xml:space="preserve">62. Zona do Provável local de
-infecção</t>
+    <t xml:space="preserve">62. Zona do Provável local de infecção</t>
   </si>
   <si>
     <t xml:space="preserve">tp_zona_infeccao</t>
@@ -2680,8 +2367,7 @@
     <t xml:space="preserve">ZONA_INFEC</t>
   </si>
   <si>
-    <t xml:space="preserve">63. Tipo de Ambiente onde
-provavelmente ocorreu a infecção</t>
+    <t xml:space="preserve">63. Tipo de Ambiente onde provavelmente ocorreu a infecção</t>
   </si>
   <si>
     <t xml:space="preserve">tp_ambiente_infeccao</t>
@@ -2727,9 +2413,7 @@
     <t xml:space="preserve">CON_AMBIEN</t>
   </si>
   <si>
-    <t xml:space="preserve">63. Tipo de Ambiente onde
-provavelmente ocorreu a infecção
-Outro (Especificar)</t>
+    <t xml:space="preserve">63. Tipo de Ambiente onde provavelmente ocorreu a infecção Outro (Especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_ambiente_infeccao_outro</t>
@@ -2770,8 +2454,7 @@
     <t xml:space="preserve">CON_AMB_DE</t>
   </si>
   <si>
-    <t xml:space="preserve">64. Localização do LPI em relação
-à Sede do Município - Km</t>
+    <t xml:space="preserve">64. Localização do LPI em relação à Sede do Município - Km</t>
   </si>
   <si>
     <t xml:space="preserve">nu_localizacao_lpi</t>
@@ -2794,8 +2477,7 @@
     <t xml:space="preserve">CON_LOCALI</t>
   </si>
   <si>
-    <t xml:space="preserve">64. Localização do LPI em relação
-à Sede do Município - Direção</t>
+    <t xml:space="preserve">64. Localização do LPI em relação à Sede do Município - Direção</t>
   </si>
   <si>
     <t xml:space="preserve">tp_localizacao_lpi</t>
@@ -2851,8 +2533,7 @@
     <t xml:space="preserve">EVOLUCAO</t>
   </si>
   <si>
-    <t xml:space="preserve">66. Data do óbito ou da alta
-hospitalar</t>
+    <t xml:space="preserve">66. Data do óbito ou da alta hospitalar</t>
   </si>
   <si>
     <t xml:space="preserve">dt_evolucao</t>
@@ -2950,8 +2631,7 @@
     <t xml:space="preserve">CON_AUTOPS</t>
   </si>
   <si>
-    <t xml:space="preserve">68. Doença relacionada ao
-Trabalho</t>
+    <t xml:space="preserve">68. Doença relacionada ao Trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
@@ -2984,16 +2664,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Campo não habilitado se
-classificação final diferente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">de 1- confirmado</t>
+classificação final diferente de 1- confirmado</t>
     </r>
   </si>
   <si>
@@ -3041,8 +2712,7 @@
     <t xml:space="preserve">DT_ENCERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações complementares e
-observações</t>
+    <t xml:space="preserve">Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_observacao</t>
@@ -3105,10 +2775,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3118,12 +2790,10 @@
       <family val="0"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3298,10 +2968,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.48828125" defaultRowHeight="67.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3747,24 +3417,24 @@
         <v>21</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>21</v>
@@ -3773,21 +3443,21 @@
         <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>21</v>
@@ -3796,21 +3466,21 @@
         <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>21</v>
@@ -3819,21 +3489,21 @@
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>21</v>
@@ -3842,21 +3512,21 @@
         <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>21</v>
@@ -3865,21 +3535,21 @@
         <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>21</v>
@@ -3888,21 +3558,21 @@
         <v>22</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>21</v>
@@ -3911,21 +3581,21 @@
         <v>22</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>21</v>
@@ -3934,21 +3604,21 @@
         <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>21</v>
@@ -3957,21 +3627,21 @@
         <v>22</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>21</v>
@@ -3980,21 +3650,21 @@
         <v>22</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>21</v>
@@ -4003,21 +3673,21 @@
         <v>22</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>21</v>
@@ -4026,21 +3696,21 @@
         <v>22</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>21</v>
@@ -4049,21 +3719,21 @@
         <v>22</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>21</v>
@@ -4072,21 +3742,21 @@
         <v>22</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>21</v>
@@ -4095,42 +3765,42 @@
         <v>22</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>21</v>
@@ -4139,42 +3809,42 @@
         <v>22</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>21</v>
@@ -4184,123 +3854,123 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="C41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="C43" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="C44" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>64</v>
@@ -4308,39 +3978,39 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>64</v>
@@ -4348,39 +4018,39 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>21</v>
@@ -4389,21 +4059,21 @@
         <v>22</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>21</v>
@@ -4412,33 +4082,33 @@
         <v>22</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>217</v>
@@ -4451,36 +4121,38 @@
       <c r="B52" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>225</v>
@@ -4494,98 +4166,100 @@
         <v>227</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>228</v>
       </c>
+      <c r="E54" s="8"/>
       <c r="F54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="7" t="s">
+      <c r="G57" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="F57" s="6" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="11" t="s">
+      <c r="F58" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4597,11 +4271,9 @@
         <v>248</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
       <c r="E59" s="7" t="s">
         <v>249</v>
       </c>
@@ -4620,130 +4292,130 @@
         <v>253</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="7" t="s">
         <v>260</v>
       </c>
       <c r="F61" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>261</v>
+      <c r="F62" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F63" s="7" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="B64" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
+      <c r="C64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B64" s="7" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="B65" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="6" t="s">
+      <c r="E65" s="8"/>
+      <c r="F65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="G65" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>21</v>
@@ -4756,15 +4428,15 @@
         <v>17</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>21</v>
@@ -4777,15 +4449,15 @@
         <v>17</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>21</v>
@@ -4798,15 +4470,15 @@
         <v>17</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>21</v>
@@ -4819,41 +4491,43 @@
         <v>17</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="G70" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="8"/>
       <c r="E71" s="7" t="s">
         <v>297</v>
       </c>
@@ -4865,138 +4539,138 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D72" s="7" t="s">
+      <c r="C72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="12"/>
+      <c r="F72" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="G72" s="9" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="E73" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="9" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="C74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="13" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="11" t="s">
+      <c r="C75" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="C76" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="D76" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="E76" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="F76" s="10" t="s">
         <v>328</v>
       </c>
+      <c r="G76" s="13" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="C77" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="9" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5007,149 +4681,149 @@
       <c r="B78" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>15</v>
+      <c r="C78" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G78" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="6" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="G80" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="6" t="s">
+      <c r="G82" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G82" s="9" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="s">
+      <c r="B83" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="7" t="s">
+      <c r="D83" s="12"/>
+      <c r="E83" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="13" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="9" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5184,124 +4858,102 @@
         <v>383</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="G86" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E87" s="8"/>
       <c r="F87" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="B88" s="11" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="s">
+      <c r="C88" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="F88" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="6" t="s">
+      <c r="G88" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="G88" s="9" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="s">
+      <c r="B89" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="11" t="s">
+      <c r="F89" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="G89" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G89" s="13" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="s">
+      <c r="B90" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="7" t="s">
+      <c r="D90" s="12"/>
+      <c r="E90" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="12"/>
+      <c r="G90" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="G90" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
